--- a/published-data/fonds-solidarite/fds-2022-05-11/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-11/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -7234,13 +7234,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>15958</v>
+        <v>15960</v>
       </c>
       <c r="D134" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E134" t="n">
-        <v>53696626</v>
+        <v>53698276</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -8560,13 +8560,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>21868</v>
+        <v>21869</v>
       </c>
       <c r="D160" t="n">
         <v>2289</v>
       </c>
       <c r="E160" t="n">
-        <v>119310137</v>
+        <v>119312313</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -10549,13 +10549,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>43530</v>
+        <v>43531</v>
       </c>
       <c r="D199" t="n">
         <v>5147</v>
       </c>
       <c r="E199" t="n">
-        <v>117974399</v>
+        <v>117976065</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -23605,13 +23605,13 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>16689</v>
+        <v>16690</v>
       </c>
       <c r="D455" t="n">
         <v>1762</v>
       </c>
       <c r="E455" t="n">
-        <v>96210771</v>
+        <v>96223064</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -26257,13 +26257,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="D507" t="n">
         <v>980</v>
       </c>
       <c r="E507" t="n">
-        <v>26533520</v>
+        <v>26541806</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -26869,13 +26869,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>13355</v>
+        <v>13356</v>
       </c>
       <c r="D519" t="n">
         <v>1372</v>
       </c>
       <c r="E519" t="n">
-        <v>74266740</v>
+        <v>74283919</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
@@ -31102,13 +31102,13 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>16213</v>
+        <v>16214</v>
       </c>
       <c r="D602" t="n">
         <v>3606</v>
       </c>
       <c r="E602" t="n">
-        <v>56305487</v>
+        <v>56500688</v>
       </c>
       <c r="F602" t="inlineStr">
         <is>
@@ -35641,13 +35641,13 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D691" t="n">
         <v>361</v>
       </c>
       <c r="E691" t="n">
-        <v>4620973</v>
+        <v>4623158</v>
       </c>
       <c r="F691" t="inlineStr">
         <is>
@@ -35896,13 +35896,13 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>16863</v>
+        <v>16865</v>
       </c>
       <c r="D696" t="n">
         <v>2631</v>
       </c>
       <c r="E696" t="n">
-        <v>25926995</v>
+        <v>25928635</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17533</v>
+        <v>17536</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38563671</v>
+        <v>38564635</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19686</v>
+        <v>19691</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56340101</v>
+        <v>56394544</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -36508,13 +36508,13 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>9685</v>
+        <v>9687</v>
       </c>
       <c r="D708" t="n">
         <v>1445</v>
       </c>
       <c r="E708" t="n">
-        <v>31910589</v>
+        <v>31911349</v>
       </c>
       <c r="F708" t="inlineStr">
         <is>
@@ -37018,13 +37018,13 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>6662</v>
+        <v>6664</v>
       </c>
       <c r="D718" t="n">
         <v>1004</v>
       </c>
       <c r="E718" t="n">
-        <v>13448653</v>
+        <v>13449261</v>
       </c>
       <c r="F718" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5662</v>
+        <v>5664</v>
       </c>
       <c r="D720" t="n">
         <v>599</v>
       </c>
       <c r="E720" t="n">
-        <v>17023521</v>
+        <v>17026661</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -38701,13 +38701,13 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>42772</v>
+        <v>42773</v>
       </c>
       <c r="D751" t="n">
         <v>9376</v>
       </c>
       <c r="E751" t="n">
-        <v>128858843</v>
+        <v>129058843</v>
       </c>
       <c r="F751" t="inlineStr">
         <is>
@@ -38803,13 +38803,13 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>58617</v>
+        <v>58618</v>
       </c>
       <c r="D753" t="n">
         <v>6091</v>
       </c>
       <c r="E753" t="n">
-        <v>334205823</v>
+        <v>334210878</v>
       </c>
       <c r="F753" t="inlineStr">
         <is>
@@ -40435,13 +40435,13 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>24425</v>
+        <v>24426</v>
       </c>
       <c r="D785" t="n">
         <v>5298</v>
       </c>
       <c r="E785" t="n">
-        <v>74396406</v>
+        <v>74397082</v>
       </c>
       <c r="F785" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21645</v>
+        <v>21646</v>
       </c>
       <c r="D848" t="n">
         <v>4244</v>
       </c>
       <c r="E848" t="n">
-        <v>85517366</v>
+        <v>85518866</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108518</v>
+        <v>108520</v>
       </c>
       <c r="D852" t="n">
         <v>19713</v>
       </c>
       <c r="E852" t="n">
-        <v>559121064</v>
+        <v>559166829</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90236</v>
+        <v>90237</v>
       </c>
       <c r="D853" t="n">
         <v>10474</v>
       </c>
       <c r="E853" t="n">
-        <v>232494725</v>
+        <v>232496146</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182034</v>
+        <v>182048</v>
       </c>
       <c r="D854" t="n">
         <v>17492</v>
       </c>
       <c r="E854" t="n">
-        <v>1645487850</v>
+        <v>1645617288</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23220</v>
+        <v>23221</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82666394</v>
+        <v>82676394</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183762</v>
+        <v>183767</v>
       </c>
       <c r="D858" t="n">
         <v>35379</v>
       </c>
       <c r="E858" t="n">
-        <v>551442812</v>
+        <v>551485022</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51262</v>
+        <v>51263</v>
       </c>
       <c r="D859" t="n">
         <v>6431</v>
       </c>
       <c r="E859" t="n">
-        <v>420813054</v>
+        <v>420853272</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114880</v>
+        <v>114883</v>
       </c>
       <c r="D862" t="n">
         <v>14327</v>
       </c>
       <c r="E862" t="n">
-        <v>417321407</v>
+        <v>417420786</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48498</v>
+        <v>48499</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>131897962</v>
+        <v>131900511</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127468</v>
+        <v>127472</v>
       </c>
       <c r="D887" t="n">
         <v>13773</v>
       </c>
       <c r="E887" t="n">
-        <v>277354255</v>
+        <v>277367788</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -48544,13 +48544,13 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>9241</v>
+        <v>9242</v>
       </c>
       <c r="D944" t="n">
         <v>1551</v>
       </c>
       <c r="E944" t="n">
-        <v>49839225</v>
+        <v>50039225</v>
       </c>
       <c r="F944" t="inlineStr">
         <is>
@@ -49054,13 +49054,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>21924</v>
+        <v>21927</v>
       </c>
       <c r="D954" t="n">
         <v>5228</v>
       </c>
       <c r="E954" t="n">
-        <v>39902432</v>
+        <v>39904691</v>
       </c>
       <c r="F954" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19678</v>
+        <v>19685</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>65947728</v>
+        <v>65970654</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -49207,13 +49207,13 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D957" t="n">
         <v>403</v>
       </c>
       <c r="E957" t="n">
-        <v>8000801</v>
+        <v>8001252</v>
       </c>
       <c r="F957" t="inlineStr">
         <is>
@@ -49360,13 +49360,13 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>7453</v>
+        <v>7455</v>
       </c>
       <c r="D960" t="n">
         <v>1870</v>
       </c>
       <c r="E960" t="n">
-        <v>16968292</v>
+        <v>16969326</v>
       </c>
       <c r="F960" t="inlineStr">
         <is>
@@ -49411,13 +49411,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>5341</v>
+        <v>5342</v>
       </c>
       <c r="D961" t="n">
         <v>1046</v>
       </c>
       <c r="E961" t="n">
-        <v>27521411</v>
+        <v>27691588</v>
       </c>
       <c r="F961" t="inlineStr">
         <is>
@@ -49564,13 +49564,13 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>7391</v>
+        <v>7393</v>
       </c>
       <c r="D964" t="n">
         <v>946</v>
       </c>
       <c r="E964" t="n">
-        <v>20454086</v>
+        <v>20466364</v>
       </c>
       <c r="F964" t="inlineStr">
         <is>
@@ -49615,13 +49615,13 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>6963</v>
+        <v>6965</v>
       </c>
       <c r="D965" t="n">
         <v>1984</v>
       </c>
       <c r="E965" t="n">
-        <v>9382644</v>
+        <v>9390903</v>
       </c>
       <c r="F965" t="inlineStr">
         <is>
@@ -49717,13 +49717,13 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>4152</v>
+        <v>4154</v>
       </c>
       <c r="D967" t="n">
         <v>848</v>
       </c>
       <c r="E967" t="n">
-        <v>9010715</v>
+        <v>9011715</v>
       </c>
       <c r="F967" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13088</v>
+        <v>13090</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>32905556</v>
+        <v>32919097</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -50176,13 +50176,13 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D976" t="n">
         <v>313</v>
       </c>
       <c r="E976" t="n">
-        <v>3215400</v>
+        <v>3221269</v>
       </c>
       <c r="F976" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3625</v>
+        <v>3628</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>11062086</v>
+        <v>11063625</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -50788,13 +50788,13 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>4710</v>
+        <v>4711</v>
       </c>
       <c r="D988" t="n">
         <v>521</v>
       </c>
       <c r="E988" t="n">
-        <v>11654490</v>
+        <v>11655990</v>
       </c>
       <c r="F988" t="inlineStr">
         <is>
@@ -55735,13 +55735,13 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>8709</v>
+        <v>8710</v>
       </c>
       <c r="D1085" t="n">
         <v>944</v>
       </c>
       <c r="E1085" t="n">
-        <v>45711278</v>
+        <v>45718383</v>
       </c>
       <c r="F1085" t="inlineStr">
         <is>
@@ -60835,13 +60835,13 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>45564</v>
+        <v>45565</v>
       </c>
       <c r="D1185" t="n">
         <v>5058</v>
       </c>
       <c r="E1185" t="n">
-        <v>292301108</v>
+        <v>292301705</v>
       </c>
       <c r="F1185" t="inlineStr">
         <is>
@@ -64252,13 +64252,13 @@
         </is>
       </c>
       <c r="C1252" t="n">
-        <v>24200</v>
+        <v>24201</v>
       </c>
       <c r="D1252" t="n">
         <v>2723</v>
       </c>
       <c r="E1252" t="n">
-        <v>152091733</v>
+        <v>152186811</v>
       </c>
       <c r="F1252" t="inlineStr">
         <is>
@@ -67261,13 +67261,13 @@
         </is>
       </c>
       <c r="C1311" t="n">
-        <v>2466</v>
+        <v>2479</v>
       </c>
       <c r="D1311" t="n">
         <v>953</v>
       </c>
       <c r="E1311" t="n">
-        <v>3029725</v>
+        <v>3077533</v>
       </c>
       <c r="F1311" t="inlineStr">
         <is>
@@ -72055,13 +72055,13 @@
         </is>
       </c>
       <c r="C1405" t="n">
-        <v>10049</v>
+        <v>10050</v>
       </c>
       <c r="D1405" t="n">
         <v>1445</v>
       </c>
       <c r="E1405" t="n">
-        <v>23696200</v>
+        <v>23700320</v>
       </c>
       <c r="F1405" t="inlineStr">
         <is>
@@ -72106,13 +72106,13 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>47504</v>
+        <v>47505</v>
       </c>
       <c r="D1406" t="n">
         <v>5146</v>
       </c>
       <c r="E1406" t="n">
-        <v>285515283</v>
+        <v>285517025</v>
       </c>
       <c r="F1406" t="inlineStr">
         <is>
@@ -76747,13 +76747,13 @@
         </is>
       </c>
       <c r="C1497" t="n">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="D1497" t="n">
         <v>683</v>
       </c>
       <c r="E1497" t="n">
-        <v>7836899</v>
+        <v>7837326</v>
       </c>
       <c r="F1497" t="inlineStr">
         <is>
@@ -82765,13 +82765,13 @@
         </is>
       </c>
       <c r="C1615" t="n">
-        <v>12800</v>
+        <v>12801</v>
       </c>
       <c r="D1615" t="n">
         <v>2909</v>
       </c>
       <c r="E1615" t="n">
-        <v>30206843</v>
+        <v>30216843</v>
       </c>
       <c r="F1615" t="inlineStr">
         <is>
@@ -82969,13 +82969,13 @@
         </is>
       </c>
       <c r="C1619" t="n">
-        <v>65674</v>
+        <v>65676</v>
       </c>
       <c r="D1619" t="n">
         <v>13319</v>
       </c>
       <c r="E1619" t="n">
-        <v>202656385</v>
+        <v>202661208</v>
       </c>
       <c r="F1619" t="inlineStr">
         <is>
@@ -85009,13 +85009,13 @@
         </is>
       </c>
       <c r="C1659" t="n">
-        <v>19235</v>
+        <v>19236</v>
       </c>
       <c r="D1659" t="n">
         <v>3944</v>
       </c>
       <c r="E1659" t="n">
-        <v>64982445</v>
+        <v>64988288</v>
       </c>
       <c r="F1659" t="inlineStr">
         <is>
